--- a/medicine/Enfance/Cécile_Boyer/Cécile_Boyer.xlsx
+++ b/medicine/Enfance/Cécile_Boyer/Cécile_Boyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Boyer</t>
+          <t>Cécile_Boyer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cécile Boyer (née en 1981) est une auteure et illustratrice française en littérature jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Boyer</t>
+          <t>Cécile_Boyer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cécile Boyer maîtrise à la fois les techniques de graphisme, illustration et typographie[1].
-En 2010, elle a obtenu pour Ouaf miaou cui-cui, chez Albin Michel Jeunesse deux prix : le Prix Sorcières[2] , catégorie tout-petits, le Prix Pitchou[3], et une Mention Spéciale par le Jury du Bologna Ragazzi Award à la Foire du livre de jeunesse de Bologne[4], catégorie Opera Prima (premier album).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cécile Boyer maîtrise à la fois les techniques de graphisme, illustration et typographie.
+En 2010, elle a obtenu pour Ouaf miaou cui-cui, chez Albin Michel Jeunesse deux prix : le Prix Sorcières , catégorie tout-petits, le Prix Pitchou, et une Mention Spéciale par le Jury du Bologna Ragazzi Award à la Foire du livre de jeunesse de Bologne, catégorie Opera Prima (premier album).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Boyer</t>
+          <t>Cécile_Boyer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a participé à de nombreuses œuvres[5] dont :
-Ouaf miaou cui-cui[6] (texte et illustration, Albin Michel Jeunesse, 2009)
-31 boîtes[7]  (texte et illustration, Albin Michel Jeunesse, 2011) réédition La Partie[8] , 2022
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle a participé à de nombreuses œuvres dont :
+Ouaf miaou cui-cui (texte et illustration, Albin Michel Jeunesse, 2009)
+31 boîtes  (texte et illustration, Albin Michel Jeunesse, 2011) réédition La Partie , 2022
 Rebonds (texte et illustration, Albin Michel Jeunesse, 2013)
-Qu'est-ce que c'est ?[9] (texte et illustration, Albin Michel Jeunesse, 2015)
+Qu'est-ce que c'est ? (texte et illustration, Albin Michel Jeunesse, 2015)
 Dans la forêt (texte de Sophie Bordet, illustration de Cécile Boyer, Gallimard Jeunesse,2016)
 Tu as vu comme ça brille ? (texte et illustration, éditions Thierry Magnier, 2018)
 Mon premier almanach : une année de nature, de saveurs  et de saisons (texte et illustrations), Albin Michel, 2021</t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Boyer</t>
+          <t>Cécile_Boyer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,11 +596,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Sorcières 2010[2] pour Ouaf miaou cui-cui
-Prix Pitchou 2010[3] pour Ouaf miaou cui-cui
-Mention Spéciale par le Jury du Bologna Ragazzi Award à la Foire du livre de jeunesse de Bologne  2010[4] pour Ouaf miaou cui-cui, catégorie Opera prima</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Sorcières 2010 pour Ouaf miaou cui-cui
+Prix Pitchou 2010 pour Ouaf miaou cui-cui
+Mention Spéciale par le Jury du Bologna Ragazzi Award à la Foire du livre de jeunesse de Bologne  2010 pour Ouaf miaou cui-cui, catégorie Opera prima</t>
         </is>
       </c>
     </row>
